--- a/DATA_goal/Junction_Flooding_155.xlsx
+++ b/DATA_goal/Junction_Flooding_155.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41587.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.57</v>
+        <v>4.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.69</v>
+        <v>3.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>56.06</v>
+        <v>5.61</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.13</v>
+        <v>1.81</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.86</v>
+        <v>2.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>251.31</v>
+        <v>25.13</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.3</v>
+        <v>4.73</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.3</v>
+        <v>3.13</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.79</v>
+        <v>2.78</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.75</v>
+        <v>1.87</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>49.49</v>
+        <v>4.95</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41587.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.93</v>
+        <v>2.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>2.07</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>51.38</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>42.49</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>72.42</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>20.69</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.72</v>
+        <v>1.87</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.54</v>
+        <v>2.65</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>277.68</v>
+        <v>27.77</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.37</v>
+        <v>5.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.07</v>
+        <v>3.51</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.62</v>
+        <v>2.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.59999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41587.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41587.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.78</v>
+        <v>2.98</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39.12</v>
+        <v>3.91</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.05</v>
+        <v>1.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>157.45</v>
+        <v>15.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.12</v>
+        <v>3.01</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.98</v>
+        <v>1.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>34.98</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.58</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41587.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>36.74</v>
+        <v>3.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.37</v>
+        <v>3.04</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>51.14</v>
+        <v>5.11</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>195.26</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>46.36</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.91</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41587.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>26.75</v>
+        <v>2.68</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>83.11</v>
+        <v>8.31</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>24.48</v>
+        <v>2.45</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41587.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V8" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>24.76</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.94</v>
-      </c>
       <c r="W8" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41587.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.48</v>
+        <v>2.25</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>48.75</v>
+        <v>4.87</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>40.3</v>
+        <v>4.03</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>63.31</v>
+        <v>6.33</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.22</v>
+        <v>2.72</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.13</v>
+        <v>1.81</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.69</v>
+        <v>2.07</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>260.48</v>
+        <v>26.05</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>49.07</v>
+        <v>4.91</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.11</v>
+        <v>3.31</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.55</v>
+        <v>3.15</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.61</v>
+        <v>2.06</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>57.22</v>
+        <v>5.72</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41587.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.46</v>
+        <v>3.25</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>26.83</v>
+        <v>2.68</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>47.7</v>
+        <v>4.77</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>171.23</v>
+        <v>17.12</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>32.87</v>
+        <v>3.29</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.14</v>
+        <v>2.21</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>43.43</v>
+        <v>4.34</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_155.xlsx
+++ b/DATA_goal/Junction_Flooding_155.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,34 +446,34 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41587.34027777778</v>
+        <v>44836.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.72</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.56</v>
+        <v>1.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.77</v>
+        <v>1.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.71</v>
+        <v>0.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.61</v>
+        <v>1.48</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.63</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.81</v>
+        <v>0.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.9</v>
+        <v>0.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.39</v>
+        <v>0.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.13</v>
+        <v>8.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.73</v>
+        <v>1.64</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.13</v>
+        <v>1.02</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.63</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.97</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.39</v>
+        <v>0.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.87</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.96</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41587.34722222222</v>
+        <v>44836.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.14</v>
+        <v>5.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.25</v>
+        <v>4.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.24</v>
+        <v>6.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.77</v>
+        <v>28.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.56</v>
+        <v>6.32</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41587.35416666666</v>
+        <v>44836.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.86</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.34</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.5</v>
+        <v>3.07</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.8</v>
+        <v>9.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.33</v>
+        <v>1.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.63</v>
+        <v>1.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.51</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.82</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.42</v>
+        <v>2.85</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41587.36111111111</v>
+        <v>44836.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.98</v>
+        <v>4.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.46</v>
+        <v>3.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.91</v>
+        <v>5.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.68</v>
+        <v>2.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.73</v>
+        <v>1.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.53</v>
+        <v>2.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.32</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>15.75</v>
+        <v>23.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.01</v>
+        <v>4.41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.01</v>
+        <v>2.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.9</v>
+        <v>2.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>1.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.5</v>
+        <v>5.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41587.36805555555</v>
+        <v>44836.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.7</v>
+        <v>3.72</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.25</v>
+        <v>2.79</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.67</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.04</v>
+        <v>6.55</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.34</v>
+        <v>2.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.11</v>
+        <v>17.89</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.06</v>
+        <v>4.54</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.91</v>
+        <v>2.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.36</v>
+        <v>2.84</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.48</v>
+        <v>3.3</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.56</v>
+        <v>3.65</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.43</v>
+        <v>1.22</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.33</v>
+        <v>3.01</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.89</v>
+        <v>4.19</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.12</v>
+        <v>2.63</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>19.53</v>
+        <v>38.53</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.72</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.23</v>
+        <v>2.78</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.5</v>
+        <v>5.79</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.33</v>
+        <v>3.17</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.49</v>
+        <v>8.67</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.09</v>
+        <v>2.33</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.96</v>
+        <v>2.37</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.13</v>
+        <v>2.77</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.55</v>
+        <v>3.69</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.64</v>
+        <v>16.98</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41587.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41587.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41587.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41587.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41587.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>102.56</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.33</v>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_155.xlsx
+++ b/DATA_goal/Junction_Flooding_155.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44836.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44836.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.25</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.29</v>
+        <v>52.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.32</v>
+        <v>43.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.9</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>29.44</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.69</v>
+        <v>26.94</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>28.45</v>
+        <v>284.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.35</v>
+        <v>53.55</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.58</v>
+        <v>35.76</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.59</v>
+        <v>35.89</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.32</v>
+        <v>63.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44836.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.07</v>
+        <v>30.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.57</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44836.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>20.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.38</v>
+        <v>43.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.58</v>
+        <v>35.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.92</v>
+        <v>59.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.3</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.75</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.3</v>
+        <v>233.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.41</v>
+        <v>44.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.39</v>
+        <v>53.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_155.xlsx
+++ b/DATA_goal/Junction_Flooding_155.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44836.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         <v>44836.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.22</v>
+        <v>24.222</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>18.25</v>
@@ -771,91 +771,91 @@
         <v>52.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>43.24</v>
+        <v>43.242</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.52</v>
+        <v>18.521</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>68.98999999999999</v>
+        <v>68.98699999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.44</v>
+        <v>29.438</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>13.66</v>
+        <v>13.658</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.44</v>
+        <v>19.439</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.18</v>
+        <v>21.184</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.8</v>
+        <v>22.799</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.68</v>
+        <v>6.683</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.94</v>
+        <v>26.943</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.08</v>
+        <v>16.085</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.071</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.53</v>
+        <v>284.532</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>53.55</v>
+        <v>53.545</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.76</v>
+        <v>35.755</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>19.28</v>
+        <v>19.281</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.54</v>
+        <v>2.544</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.89</v>
+        <v>35.888</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.334</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>14.12</v>
+        <v>14.116</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.69</v>
+        <v>16.692</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.97</v>
+        <v>22.971</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>63.21</v>
+        <v>63.214</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>10.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.82</v>
+        <v>21.825</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44836.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.36</v>
+        <v>6.365</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>18.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.97</v>
+        <v>14.972</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.26</v>
+        <v>6.258</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.68</v>
+        <v>30.677</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.3</v>
+        <v>10.301</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.012</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.642</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.43</v>
+        <v>7.428</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.55</v>
+        <v>2.554</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>9.380000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.78</v>
+        <v>5.783</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.485</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>95.70999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.12</v>
+        <v>19.122</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.593</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.92</v>
+        <v>6.915</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.26</v>
+        <v>15.265</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.311</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>5.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.082</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.24</v>
+        <v>8.237</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>28.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.76</v>
+        <v>3.758</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.603</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>18.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44836.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_155.xlsx
+++ b/DATA_goal/Junction_Flooding_155.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,9 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
@@ -967,103 +967,207 @@
         <v>44836.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.03</v>
+        <v>20.026</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.05</v>
+        <v>15.047</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.78</v>
+        <v>43.776</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.84</v>
+        <v>35.844</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.45</v>
+        <v>15.451</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.22</v>
+        <v>59.221</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.3</v>
+        <v>24.297</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.21</v>
+        <v>11.209</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.07</v>
+        <v>16.067</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.53</v>
+        <v>17.533</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>18.75</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.36</v>
+        <v>5.364</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.31</v>
+        <v>22.306</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.02</v>
+        <v>233.022</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.1</v>
+        <v>44.097</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.59</v>
+        <v>29.588</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.83</v>
+        <v>15.826</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.078</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.74</v>
+        <v>29.739</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.72</v>
+        <v>12.717</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.542</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.59</v>
+        <v>13.589</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.73</v>
+        <v>18.734</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.87</v>
+        <v>53.874</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.464</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.06</v>
+        <v>18.064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44836.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.53</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_155.xlsx
+++ b/DATA_goal/Junction_Flooding_155.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,9 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
@@ -967,207 +967,103 @@
         <v>44836.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.026</v>
+        <v>20.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.047</v>
+        <v>15.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.776</v>
+        <v>43.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.844</v>
+        <v>35.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.451</v>
+        <v>15.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.221</v>
+        <v>59.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.297</v>
+        <v>24.3</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.209</v>
+        <v>11.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.067</v>
+        <v>16.07</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.533</v>
+        <v>17.53</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>18.75</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.364</v>
+        <v>5.36</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.306</v>
+        <v>22.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.232</v>
+        <v>13.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.022</v>
+        <v>233.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.097</v>
+        <v>44.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.575</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.588</v>
+        <v>29.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.826</v>
+        <v>15.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.078</v>
+        <v>2.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.739</v>
+        <v>29.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.717</v>
+        <v>12.72</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.542</v>
+        <v>11.54</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.589</v>
+        <v>13.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.734</v>
+        <v>18.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.874</v>
+        <v>53.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.464</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.064</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44836.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.53</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.35</v>
+        <v>18.06</v>
       </c>
     </row>
   </sheetData>
